--- a/game_excel/mail.xlsx
+++ b/game_excel/mail.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="180" windowWidth="19200" windowHeight="11550"/>
@@ -152,8 +152,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,7 +276,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -350,7 +350,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -385,7 +384,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -561,14 +559,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.5" style="2" bestFit="1" customWidth="1"/>
@@ -578,7 +576,7 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" s="8" customFormat="1">
       <c r="A1" s="6"/>
       <c r="B1" s="6" t="s">
         <v>11</v>
@@ -593,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" s="2" customFormat="1">
       <c r="A2" s="5"/>
       <c r="B2" s="4" t="s">
         <v>9</v>
@@ -608,7 +606,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" s="2" customFormat="1">
       <c r="A3" s="5"/>
       <c r="B3" s="4" t="s">
         <v>10</v>
@@ -623,7 +621,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" s="2" customFormat="1">
       <c r="A4" s="5"/>
       <c r="B4" s="4" t="s">
         <v>15</v>
@@ -638,14 +636,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" s="2" customFormat="1" ht="22.5">
       <c r="A5" s="5"/>
       <c r="B5" s="4"/>
       <c r="C5" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="5" t="s">
         <v>0</v>
       </c>
@@ -662,7 +660,7 @@
         <v>5002821</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" s="2" customFormat="1">
       <c r="A7" s="5" t="s">
         <v>1</v>
       </c>
@@ -679,7 +677,7 @@
         <v>5002823</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -696,7 +694,7 @@
         <v>5002825</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5">
       <c r="A9" s="5" t="s">
         <v>3</v>
       </c>
@@ -713,7 +711,7 @@
         <v>5002827</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5">
       <c r="A10" s="5" t="s">
         <v>4</v>
       </c>
@@ -730,7 +728,7 @@
         <v>5002829</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5">
       <c r="A11" s="4" t="s">
         <v>5</v>
       </c>
@@ -747,7 +745,7 @@
         <v>5002831</v>
       </c>
     </row>
-    <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" s="2" customFormat="1">
       <c r="A12" s="4" t="s">
         <v>21</v>
       </c>
@@ -764,7 +762,7 @@
         <v>5002837</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" ht="15.75" customHeight="1">
       <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
@@ -781,7 +779,7 @@
         <v>5002833</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="5" t="s">
         <v>20</v>
       </c>
@@ -798,7 +796,7 @@
         <v>5002835</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
@@ -815,7 +813,7 @@
         <v>5002839</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
@@ -832,7 +830,7 @@
         <v>5002841</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A17" s="5" t="s">
         <v>24</v>
       </c>
@@ -849,7 +847,7 @@
         <v>5002843</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
@@ -866,7 +864,7 @@
         <v>5002845</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
@@ -883,7 +881,7 @@
         <v>5002847</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A20" s="5" t="s">
         <v>27</v>
       </c>
@@ -900,7 +898,7 @@
         <v>5002849</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5">
       <c r="A21" s="4" t="s">
         <v>8</v>
       </c>
@@ -915,7 +913,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5">
       <c r="A22" s="4" t="s">
         <v>7</v>
       </c>
@@ -930,7 +928,7 @@
       </c>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" s="2" customFormat="1">
       <c r="A23" s="4" t="s">
         <v>28</v>
       </c>
@@ -947,7 +945,7 @@
         <v>5002850</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" s="2" customFormat="1">
       <c r="A24" s="4" t="s">
         <v>29</v>
       </c>
@@ -964,7 +962,7 @@
         <v>5002851</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" s="2" customFormat="1">
       <c r="A25" s="4" t="s">
         <v>31</v>
       </c>
@@ -981,7 +979,7 @@
         <v>5002852</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" s="2" customFormat="1">
       <c r="A26" s="4" t="s">
         <v>30</v>
       </c>
@@ -998,7 +996,7 @@
         <v>5002853</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="4" t="s">
         <v>32</v>
       </c>
@@ -1023,12 +1021,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1036,12 +1034,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/game_excel/mail.xlsx
+++ b/game_excel/mail.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="37">
   <si>
     <t>每日奖励</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -146,6 +146,22 @@
   </si>
   <si>
     <t>GM来信充值补偿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉年华好友活动邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉年华限时评论活动邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉年华关注社区活动邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嘉年华分享活动邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -560,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
+      <selection activeCell="A24" sqref="A21:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -898,118 +914,186 @@
         <v>5002849</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A21" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" s="5">
+        <v>1116</v>
+      </c>
+      <c r="C21" s="5">
+        <v>1</v>
+      </c>
+      <c r="D21" s="5">
+        <v>5002856</v>
+      </c>
+      <c r="E21" s="5">
+        <v>5002857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A22" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="5">
+        <v>1117</v>
+      </c>
+      <c r="C22" s="5">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5">
+        <v>5002858</v>
+      </c>
+      <c r="E22" s="5">
+        <v>5002859</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A23" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1118</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+      <c r="D23" s="5">
+        <v>5002860</v>
+      </c>
+      <c r="E23" s="5">
+        <v>5002861</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="2" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A24" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1119</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+      <c r="D24" s="5">
+        <v>5002862</v>
+      </c>
+      <c r="E24" s="5">
+        <v>5002863</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B25" s="5">
         <v>1201</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C25" s="5">
         <v>2</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D25" s="5">
         <v>5002880</v>
       </c>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="4" t="s">
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B26" s="5">
         <v>1202</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C26" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D26" s="5">
         <v>5002881</v>
       </c>
-      <c r="E22" s="5"/>
-    </row>
-    <row r="23" spans="1:5" s="2" customFormat="1">
-      <c r="A23" s="4" t="s">
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" s="2" customFormat="1">
+      <c r="A27" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B27" s="5">
         <v>1301</v>
       </c>
-      <c r="C23" s="5">
-        <v>1</v>
-      </c>
-      <c r="D23" s="5">
+      <c r="C27" s="5">
+        <v>1</v>
+      </c>
+      <c r="D27" s="5">
         <v>5002882</v>
       </c>
-      <c r="E23" s="5">
+      <c r="E27" s="5">
         <v>5002850</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="2" customFormat="1">
-      <c r="A24" s="4" t="s">
+    <row r="28" spans="1:5" s="2" customFormat="1">
+      <c r="A28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B28" s="5">
         <v>1302</v>
       </c>
-      <c r="C24" s="5">
-        <v>1</v>
-      </c>
-      <c r="D24" s="5">
+      <c r="C28" s="5">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5">
         <v>5002882</v>
       </c>
-      <c r="E24" s="5">
+      <c r="E28" s="5">
         <v>5002851</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="2" customFormat="1">
-      <c r="A25" s="4" t="s">
+    <row r="29" spans="1:5" s="2" customFormat="1">
+      <c r="A29" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B29" s="5">
         <v>1303</v>
       </c>
-      <c r="C25" s="5">
-        <v>1</v>
-      </c>
-      <c r="D25" s="5">
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5">
         <v>5002882</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E29" s="5">
         <v>5002852</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="2" customFormat="1">
-      <c r="A26" s="4" t="s">
+    <row r="30" spans="1:5" s="2" customFormat="1">
+      <c r="A30" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B30" s="5">
         <v>1304</v>
       </c>
-      <c r="C26" s="5">
-        <v>1</v>
-      </c>
-      <c r="D26" s="5">
+      <c r="C30" s="5">
+        <v>1</v>
+      </c>
+      <c r="D30" s="5">
         <v>5002882</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E30" s="5">
         <v>5002853</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="4" t="s">
+    <row r="31" spans="1:5">
+      <c r="A31" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B31" s="5">
         <v>1305</v>
       </c>
-      <c r="C27" s="5">
-        <v>1</v>
-      </c>
-      <c r="D27" s="5">
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
+      <c r="D31" s="5">
         <v>5002854</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E31" s="5">
         <v>5002855</v>
       </c>
     </row>
